--- a/10.24第二次课作业/T2-2.xlsx
+++ b/10.24第二次课作业/T2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\10.24第二次课作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D691C4-5927-4845-A57E-BD8BC2ECF4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B1B29-2D3E-43F5-A23C-B6A6FF6068F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{840F8624-E090-496D-B86E-A54D96A3B1B3}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1534,15 +1534,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345829</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1869,14 +1869,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81421DE6-EF93-4039-9C48-6A14EE515396}">
   <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -2003,6 +2003,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>